--- a/Turma Maio 2017/Aula 5/Procv 1 Tabela de Preço Idiomas.xlsx
+++ b/Turma Maio 2017/Aula 5/Procv 1 Tabela de Preço Idiomas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -153,7 +153,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -191,7 +191,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -226,6 +226,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -261,9 +278,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -440,12 +474,13 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C10" sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
